--- a/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
@@ -58,7 +58,7 @@
     <t>Reserves</t>
   </si>
   <si>
-    <t>1|20;2|20</t>
+    <t>1001|20;1002|20</t>
   </si>
 </sst>
 </file>
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -87,6 +87,72 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -95,75 +161,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,55 +177,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,13 +246,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,67 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,97 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,17 +464,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,11 +488,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,31 +552,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,143 +570,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1062,13 +1059,13 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="8" style="2" customWidth="1"/>
@@ -1147,13 +1144,13 @@
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>500</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2">
@@ -1164,13 +1161,13 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>500</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2">
@@ -1181,13 +1178,13 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>500</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="2">
@@ -1198,13 +1195,13 @@
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>500</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="2">
@@ -1215,13 +1212,13 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>500</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2">

--- a/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -58,7 +58,19 @@
     <t>Reserves</t>
   </si>
   <si>
-    <t>1001|20;1002|20</t>
+    <t>1001|10;1002|20</t>
+  </si>
+  <si>
+    <t>1001|80;1002|150</t>
+  </si>
+  <si>
+    <t>1001|600;1004|50</t>
+  </si>
+  <si>
+    <t>1001|4000;1004|600</t>
+  </si>
+  <si>
+    <t>1003|4000;1004|7500</t>
   </si>
 </sst>
 </file>
@@ -67,9 +79,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -88,7 +100,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,6 +128,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -110,44 +214,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,14 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -176,60 +242,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -246,187 +258,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,15 +472,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,11 +521,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,17 +547,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,16 +1071,16 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1148,7 +1160,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -1162,10 +1174,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -1179,10 +1191,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -1196,10 +1208,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>500</v>
+        <v>18000</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -1213,10 +1225,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
-        <v>500</v>
+        <v>95000</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>

--- a/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -107,7 +107,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,113 +236,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -258,25 +258,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,157 +426,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,23 +470,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +492,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -517,6 +517,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,29 +558,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,145 +570,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1071,7 +1071,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1180,7 +1180,7 @@
         <v>800</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
         <v>40</v>
@@ -1197,7 +1197,7 @@
         <v>3000</v>
       </c>
       <c r="D7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2">
         <v>50</v>
@@ -1214,7 +1214,7 @@
         <v>18000</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
         <v>65</v>
@@ -1231,7 +1231,7 @@
         <v>95000</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2">
         <v>80</v>

--- a/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -61,16 +61,19 @@
     <t>1001|10;1002|20</t>
   </si>
   <si>
-    <t>1001|80;1002|150</t>
-  </si>
-  <si>
-    <t>1001|600;1004|50</t>
-  </si>
-  <si>
-    <t>1001|4000;1004|600</t>
-  </si>
-  <si>
-    <t>1003|4000;1004|7500</t>
+    <t>主木</t>
+  </si>
+  <si>
+    <t>1001|60;1002|120</t>
+  </si>
+  <si>
+    <t>1001|250;1004|50</t>
+  </si>
+  <si>
+    <t>1001|1800;1004|360</t>
+  </si>
+  <si>
+    <t>1003|1800;1004|3600</t>
   </si>
 </sst>
 </file>
@@ -78,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -100,6 +103,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -107,93 +133,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,33 +176,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,6 +221,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -258,13 +261,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,13 +363,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,151 +387,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,17 +479,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +499,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,20 +531,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,11 +553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,16 +585,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,119 +603,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,6 +723,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1066,15 +1073,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="2" customWidth="1"/>
@@ -1152,7 +1159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1168,13 +1175,19 @@
       <c r="E5" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>800</v>
@@ -1185,13 +1198,16 @@
       <c r="E6" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>3000</v>
@@ -1202,13 +1218,19 @@
       <c r="E7" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7" s="3">
+        <v>500</v>
+      </c>
+      <c r="I7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>18000</v>
@@ -1219,13 +1241,19 @@
       <c r="E8" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="H8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I8" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>95000</v>
@@ -1236,10 +1264,59 @@
       <c r="E9" s="2">
         <v>80</v>
       </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="7:8">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="7:8">
+      <c r="G24" s="4"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="7:8">
+      <c r="G30" s="4"/>
+      <c r="H30" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A3:C15">
-    <sortCondition ref="A5"/>
+  <sortState ref="G11:I35">
+    <sortCondition ref="G11"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
@@ -67,13 +67,13 @@
     <t>1001|60;1002|120</t>
   </si>
   <si>
-    <t>1001|250;1004|50</t>
-  </si>
-  <si>
-    <t>1001|1800;1004|360</t>
-  </si>
-  <si>
-    <t>1003|1800;1004|3600</t>
+    <t>1001|250;1004|100</t>
+  </si>
+  <si>
+    <t>1001|1800;1004|750</t>
+  </si>
+  <si>
+    <t>1003|3500;1004|7500</t>
   </si>
 </sst>
 </file>
@@ -81,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -109,6 +109,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -117,14 +140,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -132,27 +215,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -167,84 +245,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -261,187 +261,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,11 +470,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,13 +509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,39 +541,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1078,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1222,7 +1222,7 @@
         <v>500</v>
       </c>
       <c r="I7" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1245,7 +1245,7 @@
         <v>3600</v>
       </c>
       <c r="I8" s="2">
-        <v>360</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="2">
-        <v>3600</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="17" spans="8:8">
@@ -1315,9 +1315,6 @@
       <c r="H30" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="G11:I35">
-    <sortCondition ref="G11"/>
-  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
@@ -73,7 +73,7 @@
     <t>1001|1800;1004|750</t>
   </si>
   <si>
-    <t>1003|3500;1004|7500</t>
+    <t>1003|3000;1004|8000</t>
   </si>
 </sst>
 </file>
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -103,19 +103,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -124,33 +161,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,8 +177,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -171,7 +225,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,60 +245,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -261,181 +261,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,6 +466,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,16 +528,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,21 +557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -549,34 +567,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1078,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
@@ -58,22 +58,22 @@
     <t>Reserves</t>
   </si>
   <si>
-    <t>1001|10;1002|20</t>
+    <t>1001|20;1002|10</t>
   </si>
   <si>
     <t>主木</t>
   </si>
   <si>
-    <t>1001|60;1002|120</t>
-  </si>
-  <si>
-    <t>1001|250;1004|100</t>
-  </si>
-  <si>
-    <t>1001|1800;1004|750</t>
-  </si>
-  <si>
-    <t>1003|3000;1004|8000</t>
+    <t>1001|250;1002|150</t>
+  </si>
+  <si>
+    <t>1003|200;1002|500</t>
+  </si>
+  <si>
+    <t>1003|1000;1002|1500</t>
+  </si>
+  <si>
+    <t>1003|2200;1004|1500</t>
   </si>
 </sst>
 </file>
@@ -83,8 +83,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -103,59 +103,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +148,52 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -177,6 +201,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -185,62 +239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,31 +261,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,151 +429,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,8 +473,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,46 +498,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,16 +528,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1078,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1190,7 +1190,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -1199,7 +1199,7 @@
         <v>40</v>
       </c>
       <c r="H6" s="3">
-        <v>120</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1210,7 +1210,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
@@ -1219,10 +1219,10 @@
         <v>50</v>
       </c>
       <c r="H7" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I7" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1233,7 +1233,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>18000</v>
+        <v>3600</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
@@ -1242,10 +1242,10 @@
         <v>65</v>
       </c>
       <c r="H8" s="3">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="I8" s="2">
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1256,7 +1256,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>95000</v>
+        <v>7600</v>
       </c>
       <c r="D9" s="2">
         <v>7</v>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="2">
-        <v>7500</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="17" spans="8:8">

--- a/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
@@ -64,16 +64,16 @@
     <t>主木</t>
   </si>
   <si>
-    <t>1001|250;1002|150</t>
-  </si>
-  <si>
-    <t>1003|200;1002|500</t>
-  </si>
-  <si>
-    <t>1003|1000;1002|1500</t>
-  </si>
-  <si>
-    <t>1003|2200;1004|1500</t>
+    <t>1001|75;1002|45</t>
+  </si>
+  <si>
+    <t>1003|200;1002|200</t>
+  </si>
+  <si>
+    <t>1003|800;1002|600</t>
+  </si>
+  <si>
+    <t>1003|2000;1004|1600</t>
   </si>
 </sst>
 </file>
@@ -102,6 +102,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -111,9 +150,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,15 +164,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,25 +178,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,21 +203,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,6 +217,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -215,32 +239,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,187 +261,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,9 +472,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,32 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -540,15 +516,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,16 +534,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1078,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <t>主木</t>
   </si>
   <si>
-    <t>1001|75;1002|45</t>
+    <t>1001|100;1002|60</t>
   </si>
   <si>
     <t>1003|200;1002|200</t>
@@ -82,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -103,13 +103,49 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -117,9 +153,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,44 +162,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,55 +176,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,187 +261,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,10 +472,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -496,26 +494,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,17 +524,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1078,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B9"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,8 +83,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -102,6 +102,126 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -110,35 +230,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -146,101 +238,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,187 +261,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,11 +470,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +509,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -509,17 +533,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,34 +567,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,16 +585,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,115 +603,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1078,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
@@ -83,8 +83,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -117,6 +117,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -125,59 +201,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -193,54 +224,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,187 +261,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,26 +470,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,6 +490,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,8 +551,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,31 +567,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,16 +585,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,115 +603,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1078,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
@@ -58,22 +58,22 @@
     <t>Reserves</t>
   </si>
   <si>
-    <t>1001|20;1002|10</t>
+    <t>1001|20;1002|20</t>
   </si>
   <si>
     <t>主木</t>
   </si>
   <si>
-    <t>1001|100;1002|60</t>
-  </si>
-  <si>
-    <t>1003|200;1002|200</t>
-  </si>
-  <si>
-    <t>1003|800;1002|600</t>
-  </si>
-  <si>
-    <t>1003|2000;1004|1600</t>
+    <t>1001|100;1002|100</t>
+  </si>
+  <si>
+    <t>1002|400;1003|200</t>
+  </si>
+  <si>
+    <t>1002|1200;1003|800</t>
+  </si>
+  <si>
+    <t>1003|2000;1004|2000</t>
   </si>
 </sst>
 </file>
@@ -81,10 +81,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -103,6 +103,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -110,6 +118,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -117,9 +132,78 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,86 +216,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,24 +238,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,37 +261,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,145 +417,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,8 +472,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -494,17 +496,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,7 +533,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,22 +553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,145 +573,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1078,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
@@ -70,7 +70,7 @@
     <t>1002|400;1003|200</t>
   </si>
   <si>
-    <t>1002|1200;1003|800</t>
+    <t>1002|1800;1003|800</t>
   </si>
   <si>
     <t>1003|2000;1004|2000</t>
@@ -81,8 +81,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -103,7 +103,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,89 +118,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +132,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -222,14 +223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -238,9 +231,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,31 +261,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,13 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,133 +417,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,17 +470,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -500,7 +489,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,11 +529,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,17 +559,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1078,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityWarehouse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,16 +64,16 @@
     <t>主木</t>
   </si>
   <si>
-    <t>1001|100;1002|100</t>
-  </si>
-  <si>
-    <t>1002|400;1003|200</t>
-  </si>
-  <si>
-    <t>1002|1800;1003|800</t>
-  </si>
-  <si>
-    <t>1003|2000;1004|2000</t>
+    <t>1001|90;1002|90</t>
+  </si>
+  <si>
+    <t>1002|210;1003|100</t>
+  </si>
+  <si>
+    <t>1002|750;1003|300</t>
+  </si>
+  <si>
+    <t>1003|1200;1004|1200</t>
   </si>
 </sst>
 </file>
@@ -81,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -103,22 +103,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,6 +124,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -140,6 +155,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -155,13 +178,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -169,22 +186,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -194,15 +195,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,30 +218,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,25 +261,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,157 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,6 +470,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -485,35 +494,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -524,21 +504,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -567,151 +532,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,7 +1078,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
